--- a/biology/Zoologie/Gloydius_brevicaudus/Gloydius_brevicaudus.xlsx
+++ b/biology/Zoologie/Gloydius_brevicaudus/Gloydius_brevicaudus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gloydius brevicaudus ou mamushi à queue courte est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gloydius brevicaudus ou mamushi à queue courte est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Corée du Nord ;
 en Corée du Sud ;
 en République populaire de Chine;
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Gloydius brevicaudus[2] mesure 595 mm dont  63 mm pour la queue. C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Gloydius brevicaudus mesure 595 mm dont  63 mm pour la queue. C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Gloydius brevicaudus brevicaudus (Stejneger, 1907)
 Gloydius brevicaudus siniticus (Gloyd, 1977)</t>
         </is>
@@ -608,7 +626,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom spécifique brevicaudus vient du latin brevis, court, et de cauda, la queue, en référence à l'aspect de ce serpent.
 </t>
@@ -639,7 +659,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gloyd, 1977 : Descriptions of new taxa of crotalid snakes from China and Ceylon (Sri Lanka). Proceedings of the Biological Society of Washington, vol. 90, no 4, p. 1002-1015 (texte intégral).
 Stejneger, 1907 : Herpetology of Japan and adjacent Territory. United States National Museum Bulletin, vol. 58, p. 1-577 (texte intégral).</t>
